--- a/biology/Zoologie/Anartia_lytrea/Anartia_lytrea.xlsx
+++ b/biology/Zoologie/Anartia_lytrea/Anartia_lytrea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anartia fatima est un insecte lépidoptère appartenant à la famille des Nymphalidae à la sous-famille des Nymphalinae et au genre Anartia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anartia lytrea a été décrit par Jean-Baptiste Godart en 1819 sous le nom initial de Vanessa lytrea.
-Synonymes : Anartia dominica Skinner, 1889; Cynthia liria Fabricius, 1938[1].
-Noms vernaculaires
-Anartia lytrea se nomme Godart's Peacock ou Hispaniolan Peacock en anglais[2],[3]. 
+Synonymes : Anartia dominica Skinner, 1889; Cynthia liria Fabricius, 1938.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anartia lytrea est un papillon d'une envergure qui varie de 62 mm à 74 mm aux bords externes festonés. Le dessus est de couleur marron avec une ligne submarginale de chevrons orange, un ocelle orange centré de marron à l'angle externe des ailes postérieures et chaque aile est barrée d'une bande blanche[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anartia lytrea se nomme Godart's Peacock ou Hispaniolan Peacock en anglais,. 
 </t>
         </is>
       </c>
@@ -573,13 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Lippia (Verbenaceae) à Cuba[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anartia lytrea est un papillon d'une envergure qui varie de 62 mm à 74 mm aux bords externes festonés. Le dessus est de couleur marron avec une ligne submarginale de chevrons orange, un ocelle orange centré de marron à l'angle externe des ailes postérieures et chaque aile est barrée d'une bande blanche.
 </t>
         </is>
       </c>
@@ -605,18 +624,127 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Lippia (Verbenaceae) à Cuba.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anartia_lytrea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anartia_lytrea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anartia lytrea réside à Cuba, en République dominicaine, à Haïti, dans les iles de l'archipel des Keys en Floride, aux Antilles et au Surinam[1].
-Biotope
-Il réside en zone embroussaillées, dans des maquis ou des garrigues[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anartia lytrea réside à Cuba, en République dominicaine, à Haïti, dans les iles de l'archipel des Keys en Floride, aux Antilles et au Surinam.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anartia_lytrea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anartia_lytrea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en zone embroussaillées, dans des maquis ou des garrigues.
 Sur les autres projets Wikimedia :
 Anartia lytrea, sur Wikimedia CommonsAnartia lytrea, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anartia_lytrea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anartia_lytrea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
